--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
@@ -18,12 +18,12 @@
     <definedName name="Login_Page">Settings!$C$2:$C$8</definedName>
     <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>testuser_3</t>
   </si>
   <si>
-    <t>LogIn_02</t>
-  </si>
-  <si>
     <t>Login_02</t>
   </si>
   <si>
@@ -197,6 +191,42 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>AddProduct</t>
+  </si>
+  <si>
+    <t>Add a product to shopping cart</t>
+  </si>
+  <si>
+    <t>img_Product</t>
+  </si>
+  <si>
+    <t>Click on a product</t>
+  </si>
+  <si>
+    <t>Click on Add to cart button</t>
+  </si>
+  <si>
+    <t>btn_AddToCart</t>
+  </si>
+  <si>
+    <t>btn_ProceedToCheckout</t>
+  </si>
+  <si>
+    <t>Click on proceed to checkout button</t>
+  </si>
+  <si>
+    <t>txt_ProductName</t>
+  </si>
+  <si>
+    <t>Verify Product Name</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>TS_008</t>
   </si>
 </sst>
 </file>
@@ -249,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,12 +302,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -289,6 +330,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -299,6 +341,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,7 +639,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,20 +674,22 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -652,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +711,7 @@
     <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
@@ -682,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>28</v>
@@ -713,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,7 +783,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,17 +797,17 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,20 +821,20 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>'Test Data'!B2</f>
         <v>testuser_3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,23 +845,23 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>'Test Data'!C2</f>
         <v>Test@123</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,17 +875,17 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -849,16 +896,16 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,20 +916,20 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,18 +949,170 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D10" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D17" type="list">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F10" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F17" type="list">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E10" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E17" type="list">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -954,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -965,7 +1164,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1027,7 +1226,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,27 +1236,27 @@
   <sheetData>
     <row customHeight="1" ht="29.25" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1065,13 +1264,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1079,9 +1278,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1092,7 +1293,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,14 +1309,16 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/dataEngine/DataEngine.xlsx
+++ b/src/dataEngine/DataEngine.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -702,7 +702,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
